--- a/Team_data_21/personality.xlsx
+++ b/Team_data_21/personality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Neal/Documents/GitHub/3990_UGA/Team_data_21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3FC868-1312-FB42-8206-2FDAC0D6FD15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1368B9-FB10-D843-A81C-88CFF8A2571B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13980" yWindow="3860" windowWidth="24420" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
